--- a/Research_Index.xlsx
+++ b/Research_Index.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JamalNoahChesterMorris\OpenSource\financial_markets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chester_morris\open_source\financial_markets_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F0751-CC42-4C3E-8576-9C1D0CA7C0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE0C36-5D36-42A2-A68B-1F80BA908C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E35092CB-7B09-470F-AFDA-011ACD04C1BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E35092CB-7B09-470F-AFDA-011ACD04C1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock_Models" sheetId="1" r:id="rId1"/>
-    <sheet name="Manufacturing" sheetId="6" r:id="rId2"/>
-    <sheet name="Construction" sheetId="8" r:id="rId3"/>
-    <sheet name="Services" sheetId="7" r:id="rId4"/>
-    <sheet name="Retail" sheetId="9" r:id="rId5"/>
-    <sheet name="Consumer" sheetId="5" r:id="rId6"/>
-    <sheet name="Policy" sheetId="10" r:id="rId7"/>
-    <sheet name="USA" sheetId="2" r:id="rId8"/>
-    <sheet name="EA19" sheetId="3" r:id="rId9"/>
-    <sheet name="CHN" sheetId="4" r:id="rId10"/>
+    <sheet name="Manufacturing_Comments" sheetId="6" r:id="rId2"/>
+    <sheet name="Services_Comments" sheetId="7" r:id="rId3"/>
+    <sheet name="USA" sheetId="2" r:id="rId4"/>
+    <sheet name="EA19" sheetId="3" r:id="rId5"/>
+    <sheet name="CHN" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Stock_Models!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Stock_Models!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Ticker</t>
   </si>
@@ -75,19 +71,10 @@
     <t>https://investors.autodesk.com/</t>
   </si>
   <si>
-    <t>P/S</t>
-  </si>
-  <si>
-    <t>P/E</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
     <t>Industrial Software: CAD/CAM</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Apparel &amp; Branded Products</t>
@@ -145,9 +132,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00\ \x"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,14 +197,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -552,27 +534,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAD6E2F-A3A0-4735-8449-3767123CECF4}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="12" customWidth="1"/>
-    <col min="6" max="8" width="23.5703125" style="12" customWidth="1"/>
-    <col min="9" max="10" width="10.42578125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="4" width="16.7109375" style="4" customWidth="1"/>
+    <col min="5" max="8" width="30.7109375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -583,124 +560,100 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6">
-        <v>8.43</v>
-      </c>
-      <c r="J4" s="6">
-        <v>51.99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{5DAD6E2F-A3A0-4735-8449-3767123CECF4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J4">
+  <autoFilter ref="A1:H1" xr:uid="{5DAD6E2F-A3A0-4735-8449-3767123CECF4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H4">
       <sortCondition ref="F1"/>
     </sortState>
   </autoFilter>
@@ -726,8 +679,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A390ED-3F0C-43AD-80E0-818DFB9558DB}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72AEF32-7FB6-4362-B407-292682688426}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D99F08-F5D1-4254-A353-E6513CC22D22}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8272D9-1D81-417F-AF33-99C59AA537FB}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -740,82 +724,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72AEF32-7FB6-4362-B407-292682688426}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E17835-2379-43BE-B3F5-5B6777D5574F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D99F08-F5D1-4254-A353-E6513CC22D22}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A3F9ED-3EC7-405F-AA27-DD00A79FCFBC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49CB779-CAC6-4165-BF09-50D59BE6D85F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D66460-C667-48D5-A757-63F61289E119}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8272D9-1D81-417F-AF33-99C59AA537FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138D8121-07DE-4867-A36C-9DB23CFDBD0A}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -828,8 +741,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138D8121-07DE-4867-A36C-9DB23CFDBD0A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A390ED-3F0C-43AD-80E0-818DFB9558DB}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Research_Index.xlsx
+++ b/Research_Index.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chester_morris\open_source\financial_markets_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE0C36-5D36-42A2-A68B-1F80BA908C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A01F2B9-CEE7-48F4-AE4D-7C296387B946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E35092CB-7B09-470F-AFDA-011ACD04C1BA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25365" windowHeight="15585" activeTab="1" xr2:uid="{E35092CB-7B09-470F-AFDA-011ACD04C1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock_Models" sheetId="1" r:id="rId1"/>
-    <sheet name="Manufacturing_Comments" sheetId="6" r:id="rId2"/>
-    <sheet name="Services_Comments" sheetId="7" r:id="rId3"/>
-    <sheet name="USA" sheetId="2" r:id="rId4"/>
-    <sheet name="EA19" sheetId="3" r:id="rId5"/>
-    <sheet name="CHN" sheetId="4" r:id="rId6"/>
+    <sheet name="Comments" sheetId="6" r:id="rId2"/>
+    <sheet name="USA" sheetId="2" r:id="rId3"/>
+    <sheet name="EA19" sheetId="3" r:id="rId4"/>
+    <sheet name="CHN" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Comments!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Stock_Models!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="163">
   <si>
     <t>Ticker</t>
   </si>
@@ -126,13 +126,409 @@
   </si>
   <si>
     <t>Cyclical/Sensitive</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>The slowing U.S. economy is causing the business forecast to be revised/reduced for the remainder of 2023. Customers are less inclined to purchase far in advance.</t>
+  </si>
+  <si>
+    <t>Computer &amp; Electronic Products</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Customer orders have definitely slowed down. Our company thought the second half of 2023 would be better than the first half, but this doesn’t seem to be the case.</t>
+  </si>
+  <si>
+    <t>Chemical Products</t>
+  </si>
+  <si>
+    <t>There were concerns that second-quarter sales were going to decrease and result in inventory levels rising; however, demand has remained stable so far. Projecting total end-of-year sales to be about where we were last year.</t>
+  </si>
+  <si>
+    <t>Transportation Equipment</t>
+  </si>
+  <si>
+    <t>There is an elevated level of capital project review as recession concerns loom. While not delayed, spending and planning are being managed and prioritized.</t>
+  </si>
+  <si>
+    <t>Food, Beverage &amp; Tobacco Products</t>
+  </si>
+  <si>
+    <t>Markets are stabilizing in the second quarter of 2023 and appear to be trending downward for most commodity chemicals; however, demand versus supply has shifted to customers’ favor.</t>
+  </si>
+  <si>
+    <t>Petroleum &amp; Coal Products</t>
+  </si>
+  <si>
+    <t>Orders and business are steady with a healthy backlog, but new prospective orders seem to be getting pushed back into 2024.</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>North American demand stabilizing, but European markets showing slowing in the second half of 2023 and 2024.</t>
+  </si>
+  <si>
+    <t>Fabricated Metal Products</t>
+  </si>
+  <si>
+    <t>Here we are almost halfway through the year, and while things are challenging, we may be doing all right.</t>
+  </si>
+  <si>
+    <t>Nonmetallic Mineral Products</t>
+  </si>
+  <si>
+    <t>Input costs for materials continue to decline. Demand is trending to about 2019 levels, accounting for inflation. The COVID-driven demand has moderated.</t>
+  </si>
+  <si>
+    <t>Paper Products</t>
+  </si>
+  <si>
+    <t>Maintaining a strong order backlog. Continue to struggle with hiring hourly factory workers and finding qualified management candidates — higher turnover than desired. Pricing has stabilized, but labor costs remain high.</t>
+  </si>
+  <si>
+    <t>Primary Metals</t>
+  </si>
+  <si>
+    <t>Stabilizing inflation rates are helping our overall situation. (High inflation has) done much to disrupt our pricing for services and rent over the past two years.</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing &amp; Hunting</t>
+  </si>
+  <si>
+    <t>We have been very busy in June, with great content coming out of the studios and the summer guest traffic.</t>
+  </si>
+  <si>
+    <t>Arts, Entertainment &amp; Recreation</t>
+  </si>
+  <si>
+    <t>Monitoring China’s anti-espionage legislation going into effect on July 1 that may have an impact on normal supply chain business operations like market research, recruitment, trade secret leakage, employing former government officials and data sharing between Chinese and foreign companies in joint domestic or cross-border projects, including transfer of technology or information sharing.</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>General business conditions are still active and steady. We’re ramping up for a busy third quarter with some expansion and preparations for early 2024 capital projects.</t>
+  </si>
+  <si>
+    <t>Finance &amp; Insurance</t>
+  </si>
+  <si>
+    <t>Strong procedural volumes are driving above-budget revenue performance, but profitability continues to suffer due to higher expenses. Inflationary pressures, staffing challenges, limited capacity and insufficient payer rates continue to financially challenge the health system. Supply chains continue to moderately improve.</t>
+  </si>
+  <si>
+    <t>Health Care &amp; Social Assistance</t>
+  </si>
+  <si>
+    <t>Supply chain lead times have stabilized and prices are holding or, in some cases, dropping slightly. It’s been a long time coming.</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Our company is maintaining an overall cautious approach, with inflation and the economy as main concerns. With oil prices stabilizing at around (US) $70 a barrel, we hope they start refilling the Strategic Petroleum Reserve to replace the oil withdrawn via emergency-use release during the pandemic.</t>
+  </si>
+  <si>
+    <t>Management of Companies &amp; Support Services</t>
+  </si>
+  <si>
+    <t>Increased demand for new transformation programs, with prices holding and an increase in clients’ capital budget allocations.</t>
+  </si>
+  <si>
+    <t>Professional, Scientific &amp; Technical Services</t>
+  </si>
+  <si>
+    <t>Business remains higher than a year ago but is falling short of forecasts and projections.</t>
+  </si>
+  <si>
+    <t>Real Estate, Rental &amp; Leasing</t>
+  </si>
+  <si>
+    <t>Overall business conditions are good, but growth is at a slow pace.</t>
+  </si>
+  <si>
+    <t>Retail Trade</t>
+  </si>
+  <si>
+    <t>Labor rates continue to be a challenge even with more people looking to return to work. Inflation is most likely a cause for this. Some incremental lower pricing on food.</t>
+  </si>
+  <si>
+    <t>Transportation &amp; Warehousing</t>
+  </si>
+  <si>
+    <t>High operational expenses continue to put pressure on our business and limit hiring. Service levels from suppliers continue to improve. Trucking metrics and sales also improved.</t>
+  </si>
+  <si>
+    <t>Wholesale Trade</t>
+  </si>
+  <si>
+    <t>Business Activity</t>
+  </si>
+  <si>
+    <t>Customer volume is increasing</t>
+  </si>
+  <si>
+    <t>Additional business contracted.</t>
+  </si>
+  <si>
+    <t>New Orders</t>
+  </si>
+  <si>
+    <t>Business expansion and higher seasonal demand</t>
+  </si>
+  <si>
+    <t>New customers added as our business continues to grow.</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Unable to find qualified candidates for some open positions</t>
+  </si>
+  <si>
+    <t>Finally able to fill some positions that have been open for some time.</t>
+  </si>
+  <si>
+    <t>Improved fulfillment</t>
+  </si>
+  <si>
+    <t>Trucking seems sufficient, but rail is lagging.</t>
+  </si>
+  <si>
+    <t>Supplier Deliveries</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Focused on reducing on hand inventory</t>
+  </si>
+  <si>
+    <t>Working through older excess inventory.</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>Backlog of Orders</t>
+  </si>
+  <si>
+    <t>Lower lead times</t>
+  </si>
+  <si>
+    <t>Material deliveries are improving, enabling us to reduce backlog.</t>
+  </si>
+  <si>
+    <t>New Export Orders</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Of the six largest manufacturing sectors, only one (Transportation Equipment) reported increased new orders. New order levels remained stalled as panelists’ companies continue to experience uncertainty regarding future customer demand</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>The index indicated employment contracted after two months of expansion preceded by two months of contraction. Of the six big manufacturing sectors, three (Machinery; Transportation Equipment; and Food, Beverage &amp; Tobacco Products) expanded. Labor management sentiment at panelists’ companies indicate a slowdown in hiring, with layoffs slightly more prevalent</t>
+  </si>
+  <si>
+    <t>Of the top six industries, three — Transportation Equipment; Machinery; and Computer &amp; Electronic Products — expanded in June. The index recorded its lowest reading since May 2020, when it registered 34.2 percent. With the large-scale contraction of backlogs and the absence of new orders, build rates are likely being managed down more aggressively</t>
+  </si>
+  <si>
+    <t>Panelists’ comments continue to indicate that suppliers have the capacity to meet all of their customers’ current demand forecasts</t>
+  </si>
+  <si>
+    <t>Manufacturing inventories contracted at a faster rate compared to May. Of the six big industries, only one (Computer &amp; Electronic Products) increased manufacturing inventories in June. In most of the other industries, manufacturing inventories continue to be managed down by panelists’ companies in support of lower production output. The index recorded its lowest level since January 2014 (43.9 percent)</t>
+  </si>
+  <si>
+    <t>Customers’ Inventories</t>
+  </si>
+  <si>
+    <t>Customers’ inventory levels dropped back into the ‘too low’ range as panelists report their companies’ customers have demand for additional future deliveries from their suppliers, a positive for future production</t>
+  </si>
+  <si>
+    <t>Panelists’ comments indicate that we are now in a buyers’ market, as sellers are concerned about filling order books to support their backlogs. Of the top six manufacturing industries, only one (Computer &amp; Electronic Products) reported price increases in June. Eighty-nine percent of panelists’ companies reported ‘same’ or ‘lower’ prices in June, compared to 85 percent in May</t>
+  </si>
+  <si>
+    <t>The index remains in strong contraction consistent with the New Orders Index, as factories continue to work backlogs down amid continued weak new order levels</t>
+  </si>
+  <si>
+    <t>The New Export Orders Index indicated that export orders contracted in June after being unchanged in May, preceded by nine straight months in contraction territory and 25 months of expansion from July 2020 to July 2022. Comments now note the weak performance in order levels from China and Europe as an ongoing concern</t>
+  </si>
+  <si>
+    <t>The index contracted for the eighth consecutive month, at a slower rate in June, following a five-month period of expansion. Panelists’ comments again indicate that the index reading reflects sluggish demand. Shipping capacity and prices continue to be accommodative</t>
+  </si>
+  <si>
+    <t>Specific</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Current U.S. market conditions of inflationary and recessionary tactics affecting overall business. Customers are reducing or not placing orders as forecast, (putting) internal focus on reducing financial liabilities and overhead costs.</t>
+  </si>
+  <si>
+    <t>Sales in our industry are extremely slow entering into the second half of the year, and no upturn is expected until at least the fourth quarter.</t>
+  </si>
+  <si>
+    <t>Demand is softening. Some pricing starting to decrease. Back orders mostly resolved.</t>
+  </si>
+  <si>
+    <t>Stable demand for the next four to six months, but longer-term uncertainty. While customer growth is projected, we cannot point to fundamentals that sustain it. Supply conditions are similar to pre-pandemic, except for energy and raw input costs. Logistics costs have settled, transit times continue to shorten and capacities at most suppliers are sufficient.</t>
+  </si>
+  <si>
+    <t>We are still in our slow season but will soon ramp up production to prepare for our busy season in late fall. Inventories aren’t changed much now but will be increasing soon. The reports on cooling inflation and consumer confidence are driving expectations of a very strong back half (of the year).</t>
+  </si>
+  <si>
+    <t>Suppliers are starting to reach out looking for new business. Softening is occurring in the China markets.</t>
+  </si>
+  <si>
+    <t>Sales remain higher than forecast. Supplier capacity issues remain an issue.</t>
+  </si>
+  <si>
+    <t>Miscellaneous Manufacturing</t>
+  </si>
+  <si>
+    <t>Semiconductor trade restrictions against China have negatively impacted our industrial business in North America.</t>
+  </si>
+  <si>
+    <t>Electrical Equipment, Appliances &amp; Components</t>
+  </si>
+  <si>
+    <t>June was a strong month, but July has been way off for construction.</t>
+  </si>
+  <si>
+    <t>Order book continues to be strong. Working overtime to complete orders. Labor availability is still the number one constraint impacting production. Cannot find qualified salaried or skilled trades people to hire. Hourly temporary employees are of poor quality and walk off after taking the job.</t>
+  </si>
+  <si>
+    <t>Of the six largest manufacturing sectors, only one (Chemical Products) reported increased new orders. New order level contraction slowed compared to June, as panelists’ companies continued to deal with uncertain customer demand</t>
+  </si>
+  <si>
+    <t>Of the top six industries, one — Machinery — expanded in July. With the decline in backlogs and weak new order levels, build rates are being managed down more aggressively</t>
+  </si>
+  <si>
+    <t>The index indicated employment contracted for a second month after two months of expansion preceded by two months of contraction. This is its lowest reading since July 2020 (43.7 percent). Of the six big manufacturing sectors, only one (Machinery) expanded. Labor management sentiment at Business Survey Committee respondents’ companies indicates a slowdown in hiring, with attrition, freezes and layoffs actively in place, as noted by many panelists and consistent with their companies’ decline in production</t>
+  </si>
+  <si>
+    <t>Panelists’ comments continue to indicate that suppliers, in most cases, have the capacity to meet all of their customers’ current demand forecasts</t>
+  </si>
+  <si>
+    <t>Manufacturing inventories contracted at a slower rate compared to June. Of the six big industries, three (Petroleum &amp; Coal Products; Machinery; and Food, Beverage &amp; Tobacco Products) increased manufacturing inventories in July. Panelists’ companies continue to watch manufacturing inventory levels closely as future demand remains uncertain. In the last four months, the index has recorded its lowest levels since August 2020 (44.9 percent)</t>
+  </si>
+  <si>
+    <t>Customers’ inventory levels are at the proper tension as panelists report their companies’ customers have the proper amount of inventory, a potential slight positive for future production</t>
+  </si>
+  <si>
+    <t>Panelists’ comments indicate that we are in a buyers’ market, as sellers move to filling order books to support their weak backlogs. Of the top six manufacturing industries, two (Petroleum &amp; Coal Products; and Computer &amp; Electronic Products) reported price increases in July. Eighty-six percent of panelists’ companies reported ‘same’ or ‘lower’ prices in July, compared to 89 percent in June</t>
+  </si>
+  <si>
+    <t>The index remains in strong contraction but has slowed compared to the previous month, as new order rates improve and production slows again</t>
+  </si>
+  <si>
+    <t>The New Export Orders Index indicated that export orders contracted for the second month in July after being unchanged in May, preceded by nine straight months in contraction territory and 25 months of expansion from July 2020 to July 2022. Comments continue to note the weak performance in order levels from China and Europe as an ongoing concern</t>
+  </si>
+  <si>
+    <t>Imports contracted for the ninth consecutive month, at a slower rate in July, following a five-month period of expansion. The index shows stable month-over-month performance, and panelists’ comments continue to indicate that the readings reflect sluggish demand. Shipping capacity and prices remain accommodative</t>
+  </si>
+  <si>
+    <t>Pricing in food sectors has come down incrementally, but in very small, almost minute percentages. IT labor pricing is still inflated.</t>
+  </si>
+  <si>
+    <t>Accommodation &amp; Food Services</t>
+  </si>
+  <si>
+    <t>Sales have been steady.</t>
+  </si>
+  <si>
+    <t>Continuing to see improved case volume in 2023, although July and summer months have flattened a bit as usual. Still scratching and clawing to find savings with economic inflationary pressures.</t>
+  </si>
+  <si>
+    <t>Business remains steady.</t>
+  </si>
+  <si>
+    <t>We are maintaining a cautious approach, although inflation seems to be easing. The overall business environment has stabilized, but tight labor markets are creating ongoing issues.</t>
+  </si>
+  <si>
+    <t>Hiring of employees, temporary workers and consultants continues to be slow as companies remain cautious about increasing fixed and variable expenses during uncertain economic times.</t>
+  </si>
+  <si>
+    <t>Although capacity in transportation services has improved, there are still some industries with lagging lead times for their products.</t>
+  </si>
+  <si>
+    <t>Overall economy is good. Supply chain market is stable. Commodity prices are increasing but at a slower rate. Lead times and deliveries are ideal, and inventories are lower than last quarter. The unemployment rate is at its lowest point in 70 years. Wages continue to grow.</t>
+  </si>
+  <si>
+    <t>Public Administration</t>
+  </si>
+  <si>
+    <t>We are still having issues with getting certain materials based on chips, though not nearly as imposing as they were a year ago. Lead times from Europe and in general seem to be improving. There are challenges with suppliers who made changes during the pandemic to spread workloads — they are not as responsive, and this affects lead times.</t>
+  </si>
+  <si>
+    <t>Steady, slower growth.</t>
+  </si>
+  <si>
+    <t>High operational expenses continue to put pressure on the business and limit hiring. Supplier costs (are) not coming down as much as expected. Service levels from suppliers continue to improve. Trucking metrics improved.</t>
+  </si>
+  <si>
+    <t>Business expansion and seasonal gains</t>
+  </si>
+  <si>
+    <t>Customer demand driving increase.</t>
+  </si>
+  <si>
+    <t>New fiscal year spending and preparation for the school year</t>
+  </si>
+  <si>
+    <t>Increased CapEx (capital expenditures) spend.</t>
+  </si>
+  <si>
+    <t>Not replacing turnover on production teams; matching capacity to lower demand</t>
+  </si>
+  <si>
+    <t>Have a need but cannot recruit fast enough.</t>
+  </si>
+  <si>
+    <t>We are hiring but also losing employees to other firms that offer higher compensation.</t>
+  </si>
+  <si>
+    <t>Backlog at suppliers lower, with measured production and transportation availability</t>
+  </si>
+  <si>
+    <t>Better lead times, less supply constraints.</t>
+  </si>
+  <si>
+    <t>Deliberate reductions of stock levels</t>
+  </si>
+  <si>
+    <t>Able to run the business on lower inventory.</t>
+  </si>
+  <si>
+    <t>Percentage of on-time deliveries is increasing, but still not at 2019 levels</t>
+  </si>
+  <si>
+    <t>Due to lead times stability and improvement in the overall supply chain, backlogs have significantly improved.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +571,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -218,6 +637,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,33 +1108,1544 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72AEF32-7FB6-4362-B407-292682688426}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="12" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>45108</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>45078</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{C72AEF32-7FB6-4362-B407-292682688426}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E89">
+      <sortCondition descending="1" ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D99F08-F5D1-4254-A353-E6513CC22D22}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8272D9-1D81-417F-AF33-99C59AA537FB}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -724,7 +2662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138D8121-07DE-4867-A36C-9DB23CFDBD0A}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -741,7 +2679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A390ED-3F0C-43AD-80E0-818DFB9558DB}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
